--- a/datos/out/stock.xlsx
+++ b/datos/out/stock.xlsx
@@ -28,7 +28,7 @@
     <t>stock</t>
   </si>
   <si>
-    <t>fecha</t>
+    <t>fecha_stock</t>
   </si>
   <si>
     <t>00001</t>
